--- a/python codes/excel to xml to tally prime/tally_test.xlsx
+++ b/python codes/excel to xml to tally prime/tally_test.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\scripts\excel to xml to tally prime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\scripts\python codes\excel to xml to tally prime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E5CE5-E477-4633-B2FB-997BDCD8E80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CCCC9-9F83-4408-823B-2A4CCE21E2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F9D5371-2496-4703-B06C-CEABC2BBD09A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="37">
   <si>
     <t>date</t>
   </si>
@@ -96,29 +99,53 @@
     <t>voucher type</t>
   </si>
   <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>TATA AIG GENERAL INSURANCE CO LTD</t>
-  </si>
-  <si>
-    <t>Insurance Payment 01640916690000</t>
-  </si>
-  <si>
-    <t>CGST</t>
-  </si>
-  <si>
-    <t>SGST</t>
-  </si>
-  <si>
-    <t>Insurance Expenses</t>
+    <t>voucher number</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Salary-Anupam Sinha</t>
+  </si>
+  <si>
+    <t>Salary-Rakesh Kumar</t>
+  </si>
+  <si>
+    <t>Salary-Rani</t>
+  </si>
+  <si>
+    <t>Salary-Arpit</t>
+  </si>
+  <si>
+    <t>Salary-Mariam</t>
+  </si>
+  <si>
+    <t>Salary-Binod Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary-Sunil </t>
+  </si>
+  <si>
+    <t>Salary-Chandan Mishra</t>
+  </si>
+  <si>
+    <t>Salary-Arti Mishra</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Cash on Hand</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,18 +184,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,149 +503,2516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC8A18B-237B-4D8E-9077-093EED76880E}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45017</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5">
-        <v>21792</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <f>-H2</f>
+        <v>-9500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">-H3</f>
+        <v>-7000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="G2">
-        <f>-(16049+3235)</f>
-        <v>-19284</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="4">
-        <f>-963-291</f>
-        <v>-1254</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4">
-        <f>-963-291</f>
-        <v>-1254</v>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="G41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>-8000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>-7000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" si="1">-H67</f>
+        <v>-6000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45329</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45329</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>-6000</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45084</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45114</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45145</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45237</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45267</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45298</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45329</v>
+      </c>
+      <c r="D98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45329</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>-7000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45358</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>-8000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X1" xr:uid="{DEC8A18B-237B-4D8E-9077-093EED76880E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
